--- a/tables/speakers_locals.xlsx
+++ b/tables/speakers_locals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Kar_Docs\ProjectMangmt\e-Devices\DeviceComparisons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-device2\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1832CF18-1338-4D74-ADFF-904BCF6D068F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD0A328-0674-4A5B-BEAD-7C52386E32A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="-15870" windowWidth="21195" windowHeight="15600" xr2:uid="{4A1158F6-6263-4A9A-985E-95258C375A2A}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{4A1158F6-6263-4A9A-985E-95258C375A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -226,24 +226,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -266,19 +253,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -595,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E248757-A619-461A-888A-ECADEFD42294}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,8 +661,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -694,36 +672,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="9" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A8:A9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>